--- a/SeleniumDemo/TestData/RegistrationDetails.xlsx
+++ b/SeleniumDemo/TestData/RegistrationDetails.xlsx
@@ -95,7 +95,7 @@
     <t>Kashyap</t>
   </si>
   <si>
-    <t>kinngh442@gmail.com</t>
+    <t>source@gmail.com</t>
   </si>
   <si>
     <t>Test@123</t>
@@ -185,8 +185,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -221,14 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -243,6 +235,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -252,7 +274,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +311,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -281,56 +326,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,31 +365,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,67 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,37 +491,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,11 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +585,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,32 +628,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,82 +659,82 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -743,64 +743,64 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,8 +1075,8 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="R2 Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1225,7 +1225,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="kinngh442@gmail.com" tooltip="mailto:kinngh442@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="source@gmail.com" tooltip="mailto:source@gmail.com"/>
     <hyperlink ref="E2" r:id="rId2" display="Test@123" tooltip="mailto:Test@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
